--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,100 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -496,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -610,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -657,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9242424242424242</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -825,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -875,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5172413793103449</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -907,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -928,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.5166666666666667</v>
@@ -957,38 +966,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1007,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1025,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.1538461538461539</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.463768115942029</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1075,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.0883424408014572</v>
+        <v>0.07285974499089254</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1001</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.0286144578313253</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>645</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1157,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3928571428571428</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1175,7 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.02560240963855422</v>
+      </c>
+      <c r="L15">
         <v>17</v>
+      </c>
+      <c r="M15">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1203,19 +1236,43 @@
       <c r="H16">
         <v>16</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.01152368758002561</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>772</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3428571428571429</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1227,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1235,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3404255319148936</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1253,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1261,13 +1318,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3076923076923077</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1279,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1287,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1153846153846154</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1305,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
